--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H2">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I2">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J2">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>69.17786994412265</v>
+        <v>107.5967941170027</v>
       </c>
       <c r="R2">
-        <v>69.17786994412265</v>
+        <v>968.3711470530241</v>
       </c>
       <c r="S2">
-        <v>0.002573428674577927</v>
+        <v>0.003592085945568441</v>
       </c>
       <c r="T2">
-        <v>0.002573428674577927</v>
+        <v>0.003926931328440713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H3">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I3">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J3">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>603.3603920385585</v>
+        <v>708.5933502895866</v>
       </c>
       <c r="R3">
-        <v>603.3603920385585</v>
+        <v>6377.34015260628</v>
       </c>
       <c r="S3">
-        <v>0.02244511048447689</v>
+        <v>0.02365617150201189</v>
       </c>
       <c r="T3">
-        <v>0.02244511048447689</v>
+        <v>0.02586134140159507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H4">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I4">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J4">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>492.480236484131</v>
+        <v>595.0844674525226</v>
       </c>
       <c r="R4">
-        <v>492.480236484131</v>
+        <v>5355.760207072703</v>
       </c>
       <c r="S4">
-        <v>0.01832034960392498</v>
+        <v>0.01986671228919543</v>
       </c>
       <c r="T4">
-        <v>0.01832034960392498</v>
+        <v>0.0217186381572543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H5">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I5">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J5">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>543.9562784550766</v>
+        <v>612.6198815712213</v>
       </c>
       <c r="R5">
-        <v>543.9562784550766</v>
+        <v>5513.578934140992</v>
       </c>
       <c r="S5">
-        <v>0.02023526722958776</v>
+        <v>0.02045212670718454</v>
       </c>
       <c r="T5">
-        <v>0.02023526722958776</v>
+        <v>0.02235862346188168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H6">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I6">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J6">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>214.4020002173036</v>
+        <v>262.827175740844</v>
       </c>
       <c r="R6">
-        <v>214.4020002173036</v>
+        <v>1576.963054445064</v>
       </c>
       <c r="S6">
-        <v>0.007975791328812784</v>
+        <v>0.008774404589280827</v>
       </c>
       <c r="T6">
-        <v>0.007975791328812784</v>
+        <v>0.006394888613874405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H7">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J7">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>301.6895381207467</v>
+        <v>450.3384017082889</v>
       </c>
       <c r="R7">
-        <v>301.6895381207467</v>
+        <v>4053.0456153746</v>
       </c>
       <c r="S7">
-        <v>0.01122290277002177</v>
+        <v>0.01503440931304174</v>
       </c>
       <c r="T7">
-        <v>0.01122290277002177</v>
+        <v>0.01643587982877219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H8">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J8">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>2631.296947152251</v>
+        <v>2965.764913808972</v>
       </c>
       <c r="R8">
-        <v>2631.296947152251</v>
+        <v>26691.88422428075</v>
       </c>
       <c r="S8">
-        <v>0.09788469955204605</v>
+        <v>0.09901115132825092</v>
       </c>
       <c r="T8">
-        <v>0.09788469955204605</v>
+        <v>0.1082407263934116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H9">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J9">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>2147.74081940516</v>
+        <v>2490.681903241289</v>
       </c>
       <c r="R9">
-        <v>2147.74081940516</v>
+        <v>22416.1371291716</v>
       </c>
       <c r="S9">
-        <v>0.07989632832989983</v>
+        <v>0.0831506508436101</v>
       </c>
       <c r="T9">
-        <v>0.07989632832989983</v>
+        <v>0.09090174921366907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H10">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J10">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>2372.231445367519</v>
+        <v>2564.075078496311</v>
       </c>
       <c r="R10">
-        <v>2372.231445367519</v>
+        <v>23076.6757064668</v>
       </c>
       <c r="S10">
-        <v>0.08824741827372316</v>
+        <v>0.08560085947201519</v>
       </c>
       <c r="T10">
-        <v>0.08824741827372316</v>
+        <v>0.09358036024077161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H11">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J11">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>935.022146099166</v>
+        <v>1100.043651114058</v>
       </c>
       <c r="R11">
-        <v>935.022146099166</v>
+        <v>6600.26190668435</v>
       </c>
       <c r="S11">
-        <v>0.03478298484877557</v>
+        <v>0.0367246196423076</v>
       </c>
       <c r="T11">
-        <v>0.03478298484877557</v>
+        <v>0.02676533200741204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H12">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I12">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J12">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>199.6704462680823</v>
+        <v>287.8434593873107</v>
       </c>
       <c r="R12">
-        <v>199.6704462680823</v>
+        <v>2590.591134485796</v>
       </c>
       <c r="S12">
-        <v>0.007427774985079744</v>
+        <v>0.009609565540257773</v>
       </c>
       <c r="T12">
-        <v>0.007427774985079744</v>
+        <v>0.01050534551359987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H13">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I13">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J13">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>1741.499685320384</v>
+        <v>1895.632327338722</v>
       </c>
       <c r="R13">
-        <v>1741.499685320384</v>
+        <v>17060.69094604849</v>
       </c>
       <c r="S13">
-        <v>0.06478408818588773</v>
+        <v>0.06328510339810023</v>
       </c>
       <c r="T13">
-        <v>0.06478408818588773</v>
+        <v>0.06918438448395264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H14">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I14">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J14">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>1421.462509273915</v>
+        <v>1591.97281986789</v>
       </c>
       <c r="R14">
-        <v>1421.462509273915</v>
+        <v>14327.75537881102</v>
       </c>
       <c r="S14">
-        <v>0.05287865012550551</v>
+        <v>0.05314752394719129</v>
       </c>
       <c r="T14">
-        <v>0.05287865012550551</v>
+        <v>0.05810180490663373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H15">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I15">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J15">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>1570.039565502378</v>
+        <v>1638.883643774285</v>
       </c>
       <c r="R15">
-        <v>1570.039565502378</v>
+        <v>14749.95279396857</v>
       </c>
       <c r="S15">
-        <v>0.05840574220266174</v>
+        <v>0.05471362740438126</v>
       </c>
       <c r="T15">
-        <v>0.05840574220266174</v>
+        <v>0.05981389666134407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.8273493604339</v>
+        <v>26.941003</v>
       </c>
       <c r="H16">
-        <v>25.8273493604339</v>
+        <v>80.823009</v>
       </c>
       <c r="I16">
-        <v>0.2065170541338931</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J16">
-        <v>0.2065170541338931</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>618.8358083117821</v>
+        <v>703.1165204046384</v>
       </c>
       <c r="R16">
-        <v>618.8358083117821</v>
+        <v>4218.699122427831</v>
       </c>
       <c r="S16">
-        <v>0.02302079863475835</v>
+        <v>0.02347332921737469</v>
       </c>
       <c r="T16">
-        <v>0.02302079863475835</v>
+        <v>0.01710763667375157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H17">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I17">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J17">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>257.0473508768133</v>
+        <v>357.1806897832161</v>
       </c>
       <c r="R17">
-        <v>257.0473508768133</v>
+        <v>3214.626208048944</v>
       </c>
       <c r="S17">
-        <v>0.009562205717016086</v>
+        <v>0.01192436769448306</v>
       </c>
       <c r="T17">
-        <v>0.009562205717016086</v>
+        <v>0.01303592780932243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H18">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I18">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J18">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>2241.933591230553</v>
+        <v>2352.26210696402</v>
       </c>
       <c r="R18">
-        <v>2241.933591230553</v>
+        <v>21170.35896267618</v>
       </c>
       <c r="S18">
-        <v>0.0834003156621093</v>
+        <v>0.07852954843181013</v>
       </c>
       <c r="T18">
-        <v>0.0834003156621093</v>
+        <v>0.08584987904468887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H19">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I19">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J19">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>1829.931165120928</v>
+        <v>1975.455517130336</v>
       </c>
       <c r="R19">
-        <v>1829.931165120928</v>
+        <v>17779.09965417302</v>
       </c>
       <c r="S19">
-        <v>0.06807375446265942</v>
+        <v>0.06594997608816479</v>
       </c>
       <c r="T19">
-        <v>0.06807375446265942</v>
+        <v>0.07209767002653023</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H20">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I20">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J20">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>2021.203030429053</v>
+        <v>2033.666464416928</v>
       </c>
       <c r="R20">
-        <v>2021.203030429053</v>
+        <v>18302.99817975235</v>
       </c>
       <c r="S20">
-        <v>0.0751891007897655</v>
+        <v>0.06789333069591467</v>
       </c>
       <c r="T20">
-        <v>0.0751891007897655</v>
+        <v>0.07422217935261066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.249045401321</v>
+        <v>33.430692</v>
       </c>
       <c r="H21">
-        <v>33.249045401321</v>
+        <v>100.292076</v>
       </c>
       <c r="I21">
-        <v>0.2658613864403745</v>
+        <v>0.2534249298216801</v>
       </c>
       <c r="J21">
-        <v>0.2658613864403745</v>
+        <v>0.2664342694547198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>796.6632424945038</v>
+        <v>872.4868867636141</v>
       </c>
       <c r="R21">
-        <v>796.6632424945038</v>
+        <v>5234.921320581684</v>
       </c>
       <c r="S21">
-        <v>0.02963600980882421</v>
+        <v>0.02912770691130743</v>
       </c>
       <c r="T21">
-        <v>0.02963600980882421</v>
+        <v>0.02122861322156764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H22">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I22">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J22">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>139.2620467301553</v>
+        <v>206.4548355054553</v>
       </c>
       <c r="R22">
-        <v>139.2620467301553</v>
+        <v>1238.729013032732</v>
       </c>
       <c r="S22">
-        <v>0.005180572119743922</v>
+        <v>0.006892431313588747</v>
       </c>
       <c r="T22">
-        <v>0.005180572119743922</v>
+        <v>0.005023284495340633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H23">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I23">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J23">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>1214.625474578339</v>
+        <v>1359.636453621611</v>
       </c>
       <c r="R23">
-        <v>1214.625474578339</v>
+        <v>8157.818721729665</v>
       </c>
       <c r="S23">
-        <v>0.0451842768168129</v>
+        <v>0.04539104567396156</v>
       </c>
       <c r="T23">
-        <v>0.0451842768168129</v>
+        <v>0.03308152458650886</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H24">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I24">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J24">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>991.4125104217359</v>
+        <v>1141.837606296745</v>
       </c>
       <c r="R24">
-        <v>991.4125104217359</v>
+        <v>6851.025637780473</v>
       </c>
       <c r="S24">
-        <v>0.03688071611218124</v>
+        <v>0.03811989800774102</v>
       </c>
       <c r="T24">
-        <v>0.03688071611218124</v>
+        <v>0.02778222718719389</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H25">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I25">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J25">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>1095.038987620754</v>
+        <v>1175.484250391543</v>
       </c>
       <c r="R25">
-        <v>1095.038987620754</v>
+        <v>7052.905502349256</v>
       </c>
       <c r="S25">
-        <v>0.04073563890880466</v>
+        <v>0.03924318089326117</v>
       </c>
       <c r="T25">
-        <v>0.04073563890880466</v>
+        <v>0.02860088888231884</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.013529797593</v>
+        <v>19.3233515</v>
       </c>
       <c r="H26">
-        <v>18.013529797593</v>
+        <v>38.646703</v>
       </c>
       <c r="I26">
-        <v>0.1440372783298856</v>
+        <v>0.1464827290385481</v>
       </c>
       <c r="J26">
-        <v>0.1440372783298856</v>
+        <v>0.1026681916589156</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>431.6129044941436</v>
+        <v>504.3081606588943</v>
       </c>
       <c r="R26">
-        <v>431.6129044941436</v>
+        <v>2017.232642635577</v>
       </c>
       <c r="S26">
-        <v>0.01605607437234283</v>
+        <v>0.01683617314999561</v>
       </c>
       <c r="T26">
-        <v>0.01605607437234283</v>
+        <v>0.008180266507553376</v>
       </c>
     </row>
   </sheetData>
